--- a/data/EwE_diet/Kattegat_diet_matrix.xlsx
+++ b/data/EwE_diet/Kattegat_diet_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eriko/ownCloud/Research/WGINOSE/mentalmodel/EwE diet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eriko/GitHub/North-Sea-model-comparison/data/EwE_diet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0D2AC-045C-DD4D-8480-38120A9AA207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD069382-5A75-FC40-942C-CBEABEE9E931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30880" windowHeight="19100" xr2:uid="{86734D03-DFA5-4FAF-A5A1-7501BFDAF51C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="50160" windowHeight="26060" xr2:uid="{86734D03-DFA5-4FAF-A5A1-7501BFDAF51C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Birds</t>
   </si>
@@ -503,15 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2694818-8A4F-40F8-B54A-A306209EE1CA}">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM28" sqref="AM28"/>
+      <selection activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -591,40 +594,46 @@
         <v>25</v>
       </c>
       <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -707,17 +716,17 @@
         <v>0</v>
       </c>
       <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>0.1406</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.1987428</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
@@ -739,8 +748,14 @@
       <c r="AL2">
         <v>0</v>
       </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -823,14 +838,14 @@
         <v>0</v>
       </c>
       <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>7.4620000000000006E-2</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
         <v>0</v>
       </c>
@@ -855,8 +870,14 @@
       <c r="AL3">
         <v>0</v>
       </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -939,14 +960,14 @@
         <v>0</v>
       </c>
       <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
       <c r="AE4">
         <v>0</v>
       </c>
@@ -971,8 +992,14 @@
       <c r="AL4">
         <v>0</v>
       </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1055,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>0.50673670000000004</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>3.089925E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>1.062777E-2</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>0.39657320000000001</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>4.7037710000000003E-2</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
         <v>6.7702810000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1171,40 +1204,46 @@
         <v>0</v>
       </c>
       <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>0.53318770000000004</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>5.0075E-4</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>1.72232E-4</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>6.4268229999999999E-3</v>
       </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>7.6228799999999996E-4</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>1.0971850000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1287,40 +1326,46 @@
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>0.20761080000000001</v>
       </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>8.1792810000000001E-3</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>3.0314169999999998E-3</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>2.9020280000000001E-3</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>6.6266039999999998E-2</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
         <v>4.3530409999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1403,40 +1448,46 @@
         <v>0</v>
       </c>
       <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>0.2322997</v>
       </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>6.7071899999999996E-4</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>2.4858299999999997E-4</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>2.37972E-4</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
         <v>5.433958E-3</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>3.5695869999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1519,40 +1570,46 @@
         <v>0</v>
       </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>0.2573376</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>1.2899999999999999E-3</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>7.1599999999999995E-4</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>1.27E-4</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1635,40 +1692,46 @@
         <v>0</v>
       </c>
       <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>1.862492</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
       <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>2.4099999999999998E-3</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>4.3600000000000002E-3</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1751,40 +1814,46 @@
         <v>0</v>
       </c>
       <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>0.31897449999999999</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>2.4099999999999998E-3</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>8.7799999999999998E-4</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1867,14 +1936,14 @@
         <v>0</v>
       </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>0.57705839999999997</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
@@ -1885,22 +1954,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>0.41058899999999998</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>6.0939000000000002E-3</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>6.6333600000000006E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>2.1378600000000001E-2</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1983,14 +2058,14 @@
         <v>0</v>
       </c>
       <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <v>0.23338400000000001</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
       <c r="AE13">
         <v>0</v>
       </c>
@@ -2001,22 +2076,28 @@
         <v>0</v>
       </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>4.1100000000000002E-4</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AK13" s="1">
         <v>6.1E-6</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AL13" s="1">
         <v>6.6400000000000001E-5</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AM13" s="1">
         <v>2.1399999999999998E-5</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2099,14 +2180,14 @@
         <v>0</v>
       </c>
       <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>7.6939999999999995E-2</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
         <v>0</v>
       </c>
@@ -2117,22 +2198,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>6.1599999999999997E-3</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>3.5399999999999999E-4</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>5.7600000000000001E-4</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2215,14 +2302,14 @@
         <v>0</v>
       </c>
       <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>1.528886</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0</v>
       </c>
@@ -2233,22 +2320,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>0.79600000000000004</v>
       </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>0.22</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2331,14 +2424,14 @@
         <v>0</v>
       </c>
       <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <v>5.0907410000000004</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
       <c r="AE16">
         <v>0</v>
       </c>
@@ -2349,22 +2442,28 @@
         <v>0</v>
       </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>6.45E-3</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2447,14 +2546,14 @@
         <v>0</v>
       </c>
       <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>5.4843320000000002</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
       <c r="AE17">
         <v>0</v>
       </c>
@@ -2465,22 +2564,28 @@
         <v>0</v>
       </c>
       <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>0.34200000000000003</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>1.47E-2</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <v>0.46300000000000002</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>0.109</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2563,14 +2668,14 @@
         <v>0</v>
       </c>
       <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>2.2031269999999998</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
       <c r="AE18">
         <v>0</v>
       </c>
@@ -2581,22 +2686,28 @@
         <v>0</v>
       </c>
       <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1.3520000000000001</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>7.85E-2</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <v>0.22</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2679,14 +2790,14 @@
         <v>0</v>
       </c>
       <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
         <v>210.2063</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
       <c r="AE19">
         <v>0</v>
       </c>
@@ -2711,8 +2822,14 @@
       <c r="AL19">
         <v>0</v>
       </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2795,14 +2912,14 @@
         <v>0</v>
       </c>
       <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <v>13.337429999999999</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
       <c r="AE20">
         <v>0</v>
       </c>
@@ -2813,22 +2930,28 @@
         <v>0</v>
       </c>
       <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>7.6400000000000001E-3</v>
       </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
         <v>2.5799999999999998E-3</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2911,14 +3034,14 @@
         <v>0</v>
       </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>39.658520000000003</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0</v>
       </c>
@@ -2943,8 +3066,14 @@
       <c r="AL21">
         <v>0</v>
       </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3027,14 +3156,14 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
         <v>80.33775</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
         <v>0</v>
       </c>
@@ -3059,8 +3188,14 @@
       <c r="AL22">
         <v>0</v>
       </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3143,40 +3278,46 @@
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>1.492998</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>6.1824999999999998E-2</v>
       </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3259,40 +3400,46 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>23.694990000000001</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>1.02E-4</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>1.05E-4</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>8.2200000000000003E-4</v>
       </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3375,14 +3522,14 @@
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>78.406940000000006</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
         <v>0</v>
       </c>
@@ -3407,8 +3554,14 @@
       <c r="AL25">
         <v>0</v>
       </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3491,14 +3644,14 @@
         <v>0</v>
       </c>
       <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>0.34571980000000002</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
       <c r="AE26">
         <v>0</v>
       </c>
@@ -3523,8 +3676,14 @@
       <c r="AL26">
         <v>0</v>
       </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3607,14 +3766,14 @@
         <v>0</v>
       </c>
       <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
         <v>519.53949999999998</v>
       </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
       <c r="AE27">
         <v>0</v>
       </c>
@@ -3639,8 +3798,14 @@
       <c r="AL27">
         <v>0</v>
       </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3723,14 +3888,14 @@
         <v>0</v>
       </c>
       <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>1042.9480000000001</v>
       </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
       <c r="AE28">
         <v>0</v>
       </c>
@@ -3755,8 +3920,14 @@
       <c r="AL28">
         <v>0</v>
       </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3839,14 +4010,14 @@
         <v>880.21950000000004</v>
       </c>
       <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>1847.962</v>
       </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
       <c r="AE29">
         <v>0</v>
       </c>
@@ -3871,8 +4042,14 @@
       <c r="AL29">
         <v>0</v>
       </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3987,8 +4164,14 @@
       <c r="AL30">
         <v>0</v>
       </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4103,8 +4286,14 @@
       <c r="AL31">
         <v>0</v>
       </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4219,8 +4408,14 @@
       <c r="AL32">
         <v>0</v>
       </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4335,8 +4530,14 @@
       <c r="AL33">
         <v>0</v>
       </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4451,8 +4652,14 @@
       <c r="AL34">
         <v>0</v>
       </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4567,8 +4774,14 @@
       <c r="AL35">
         <v>0</v>
       </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4683,8 +4896,14 @@
       <c r="AL36">
         <v>0</v>
       </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4799,8 +5018,14 @@
       <c r="AL37">
         <v>0</v>
       </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4915,8 +5140,14 @@
       <c r="AL38">
         <v>0</v>
       </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5031,8 +5262,14 @@
       <c r="AL39">
         <v>0</v>
       </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5145,6 +5382,12 @@
         <v>0</v>
       </c>
       <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
         <v>0</v>
       </c>
     </row>
